--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\tarjetacredito\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB132A0-CDBD-4FBB-8235-10104D735156}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFB47D-66D8-48C0-B3C5-C65ECBF1896B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -100,94 +100,89 @@
     <t>numeroCuenta</t>
   </si>
   <si>
-    <t>numeroTarjeta</t>
-  </si>
-  <si>
     <t>tipoPago</t>
   </si>
   <si>
     <t>valorPago</t>
   </si>
   <si>
-    <t>moneda</t>
-  </si>
-  <si>
     <t>22493944</t>
   </si>
   <si>
-    <t>tipoTarjeta</t>
-  </si>
-  <si>
-    <t>Personal American Express</t>
-  </si>
-  <si>
-    <t>*2736</t>
-  </si>
-  <si>
-    <t>Pago mínimo en dólares</t>
-  </si>
-  <si>
-    <t>Dolares</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>Ahorros</t>
   </si>
   <si>
     <t>Otro valor</t>
   </si>
   <si>
-    <t>*7826</t>
-  </si>
-  <si>
-    <t>Pesos</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Personal Visa</t>
-  </si>
-  <si>
-    <t>*5880</t>
-  </si>
-  <si>
-    <t>480369</t>
-  </si>
-  <si>
     <t>Corriente</t>
   </si>
   <si>
-    <t>406-125170-00</t>
-  </si>
-  <si>
-    <t>406-725170-06</t>
-  </si>
-  <si>
-    <t>autotest10</t>
-  </si>
-  <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>tipoPrestamo</t>
+  </si>
+  <si>
+    <t>Crediagil</t>
+  </si>
+  <si>
+    <t>29281005217</t>
+  </si>
+  <si>
+    <t>Pago mínimo</t>
+  </si>
+  <si>
+    <t>Pago total</t>
+  </si>
+  <si>
+    <t>50893</t>
+  </si>
+  <si>
+    <t>40893</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>pruebasusuario11</t>
+  </si>
+  <si>
+    <t>numeroPrestamo</t>
+  </si>
+  <si>
+    <t>406-106940-01</t>
+  </si>
+  <si>
+    <t>406-706940-12</t>
+  </si>
+  <si>
+    <t>406-706940-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,23 +276,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -603,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -624,7 +619,7 @@
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,42 +663,39 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1">
+    <row r="2" spans="1:20" s="10" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>50</v>
+      <c r="D2" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -733,42 +725,39 @@
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>48</v>
+      <c r="T2" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>50</v>
+      <c r="D3" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -798,42 +787,39 @@
         <v>22</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>50</v>
+      <c r="D4" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -863,29 +849,26 @@
         <v>22</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{67C6CB3E-A984-46BB-B622-F0ADD216DE02}"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFB47D-66D8-48C0-B3C5-C65ECBF1896B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C0175-6E15-4D79-A75B-0AF112B10912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>50893</t>
   </si>
   <si>
-    <t>40893</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -163,19 +160,35 @@
     <t>406-706940-12</t>
   </si>
   <si>
-    <t>406-706940-13</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>29281005233</t>
+  </si>
+  <si>
+    <t>406-107870-00</t>
+  </si>
+  <si>
+    <t>CREDIAGIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,22 +289,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -600,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -666,7 +680,7 @@
         <v>35</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>26</v>
@@ -692,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
@@ -734,13 +748,13 @@
         <v>38</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -754,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>34</v>
@@ -802,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -816,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -849,26 +863,26 @@
         <v>22</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="N3" r:id="rId2" xr:uid="{67C6CB3E-A984-46BB-B622-F0ADD216DE02}"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/pagos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C0175-6E15-4D79-A75B-0AF112B10912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -163,32 +167,31 @@
     <t>1000</t>
   </si>
   <si>
-    <t>29281005233</t>
-  </si>
-  <si>
-    <t>406-107870-00</t>
-  </si>
-  <si>
-    <t>CREDIAGIL</t>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>Prestamo personal</t>
+  </si>
+  <si>
+    <t>29281023961</t>
+  </si>
+  <si>
+    <t>406-182800-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,27 +292,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,29 +616,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="15" width="27.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="13" width="16.83203125" customWidth="1"/>
+    <col min="14" max="15" width="27.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="25.5" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="10" customFormat="1">
+    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -757,7 +763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -819,7 +825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -829,11 +835,11 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>42</v>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -866,7 +872,7 @@
         <v>49</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>30</v>
@@ -878,15 +884,15 @@
         <v>33</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{67C6CB3E-A984-46BB-B622-F0ADD216DE02}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{BBE34ADD-6B07-4872-AD38-7133AF9FBFD6}"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -113,9 +113,6 @@
     <t>22493944</t>
   </si>
   <si>
-    <t>Ahorros</t>
-  </si>
-  <si>
     <t>Otro valor</t>
   </si>
   <si>
@@ -128,18 +125,9 @@
     <t>Corriente</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>tipoPrestamo</t>
   </si>
   <si>
-    <t>Crediagil</t>
-  </si>
-  <si>
-    <t>29281005217</t>
-  </si>
-  <si>
     <t>Pago mínimo</t>
   </si>
   <si>
@@ -152,16 +140,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>pruebasusuario11</t>
-  </si>
-  <si>
     <t>numeroPrestamo</t>
-  </si>
-  <si>
-    <t>406-106940-01</t>
-  </si>
-  <si>
-    <t>406-706940-12</t>
   </si>
   <si>
     <t>1000</t>
@@ -186,26 +165,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,23 +257,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -619,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>26</v>
@@ -711,11 +674,11 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -745,27 +708,27 @@
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="S2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
@@ -773,11 +736,11 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -807,27 +770,27 @@
         <v>22</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="S3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
@@ -836,10 +799,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -869,26 +832,26 @@
         <v>22</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
     <hyperlink ref="N3" r:id="rId2"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -137,9 +137,6 @@
     <t>50893</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>numeroPrestamo</t>
   </si>
   <si>
@@ -159,6 +156,24 @@
   </si>
   <si>
     <t>406-182800-03</t>
+  </si>
+  <si>
+    <t>inversion2</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Prestamo personal ta</t>
+  </si>
+  <si>
+    <t>29281005510</t>
+  </si>
+  <si>
+    <t>20561111</t>
+  </si>
+  <si>
+    <t>406-130790-01</t>
   </si>
 </sst>
 </file>
@@ -583,7 +598,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,7 +664,7 @@
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>26</v>
@@ -675,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -708,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -737,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -770,13 +785,13 @@
         <v>22</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>35</v>
+      <c r="Q3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>36</v>
@@ -785,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -799,10 +814,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -832,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886DC8F-06B9-4B1F-904D-015B825F8E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -174,13 +175,16 @@
   </si>
   <si>
     <t>406-130790-01</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,7 +296,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,30 +598,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="13" width="16.83203125" customWidth="1"/>
-    <col min="14" max="15" width="27.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="25.5" customWidth="1"/>
-    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -741,7 +745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="30">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -803,7 +807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="30">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -862,17 +866,80 @@
         <v>32</v>
       </c>
       <c r="T4" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
+      <c r="A5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{3AD5B118-CD54-495E-8BD8-AA1C7F316868}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886DC8F-06B9-4B1F-904D-015B825F8E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6CC58-4975-40AF-85CE-89D15AAE9AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -150,9 +150,6 @@
     <t>6789</t>
   </si>
   <si>
-    <t>Prestamo personal</t>
-  </si>
-  <si>
     <t>29281023961</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Ta</t>
+  </si>
+  <si>
+    <t>406-782800-09</t>
+  </si>
+  <si>
+    <t>Ahorros</t>
   </si>
 </sst>
 </file>
@@ -601,27 +607,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="15" width="27.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" customWidth="1"/>
+    <col min="12" max="13" width="16.81640625" customWidth="1"/>
+    <col min="14" max="15" width="27.81640625" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="10" customFormat="1" ht="30">
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="29">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -694,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -727,25 +733,25 @@
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30">
+    <row r="3" spans="1:20" ht="29">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -789,10 +795,10 @@
         <v>22</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>34</v>
@@ -804,10 +810,10 @@
         <v>32</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30">
+    <row r="4" spans="1:20" ht="29">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -851,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>29</v>
@@ -866,12 +872,12 @@
         <v>32</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="30">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>28</v>
@@ -913,10 +919,10 @@
         <v>22</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>29</v>
@@ -925,10 +931,10 @@
         <v>38</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6CC58-4975-40AF-85CE-89D15AAE9AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -69,12 +58,42 @@
     <t>correoUsuario</t>
   </si>
   <si>
+    <t>tipoPrestamo</t>
+  </si>
+  <si>
+    <t>numeroPrestamo</t>
+  </si>
+  <si>
+    <t>tipoPago</t>
+  </si>
+  <si>
+    <t>valorPago</t>
+  </si>
+  <si>
+    <t>tipoCuenta</t>
+  </si>
+  <si>
+    <t>numeroCuenta</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>22493944</t>
+  </si>
+  <si>
+    <t>inversion2</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
     <t>4321</t>
   </si>
   <si>
+    <t>Acierto</t>
+  </si>
+  <si>
     <t>000</t>
   </si>
   <si>
@@ -96,113 +115,91 @@
     <t>jalzate@todo1.net</t>
   </si>
   <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>tipoCuenta</t>
-  </si>
-  <si>
-    <t>numeroCuenta</t>
-  </si>
-  <si>
-    <t>tipoPago</t>
-  </si>
-  <si>
-    <t>valorPago</t>
-  </si>
-  <si>
-    <t>22493944</t>
+    <t>Prestamo personal ta</t>
+  </si>
+  <si>
+    <t>29281005510</t>
+  </si>
+  <si>
+    <t>Pago total</t>
+  </si>
+  <si>
+    <t>20561111</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>406-130790-01</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Ta</t>
+  </si>
+  <si>
+    <t>29281023961</t>
+  </si>
+  <si>
+    <t>Pago mínimo</t>
+  </si>
+  <si>
+    <t>50893</t>
+  </si>
+  <si>
+    <t>406-182800-03</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>invictus10</t>
+  </si>
+  <si>
+    <t>29281023956</t>
   </si>
   <si>
     <t>Otro valor</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Corriente</t>
-  </si>
-  <si>
-    <t>tipoPrestamo</t>
-  </si>
-  <si>
-    <t>Pago mínimo</t>
-  </si>
-  <si>
-    <t>Pago total</t>
-  </si>
-  <si>
-    <t>50893</t>
-  </si>
-  <si>
-    <t>numeroPrestamo</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>pruebauser01</t>
-  </si>
-  <si>
-    <t>6789</t>
-  </si>
-  <si>
-    <t>29281023961</t>
-  </si>
-  <si>
-    <t>406-182800-03</t>
-  </si>
-  <si>
-    <t>inversion2</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Prestamo personal ta</t>
-  </si>
-  <si>
-    <t>29281005510</t>
-  </si>
-  <si>
-    <t>20561111</t>
-  </si>
-  <si>
-    <t>406-130790-01</t>
+    <t>406-125210-00</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Prestamo Personal Ta</t>
+    <t>Ahorros</t>
   </si>
   <si>
     <t>406-782800-09</t>
-  </si>
-  <si>
-    <t>Ahorros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +210,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -221,13 +225,143 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +380,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,40 +599,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,353 +1203,353 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="10" width="23.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" customWidth="1"/>
-    <col min="12" max="13" width="16.81640625" customWidth="1"/>
-    <col min="14" max="15" width="27.81640625" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7238095238095" customWidth="1"/>
+    <col min="3" max="3" width="18.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="11.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.8190476190476" customWidth="1"/>
+    <col min="7" max="8" width="15.4571428571429" customWidth="1"/>
+    <col min="9" max="10" width="23.4571428571429" customWidth="1"/>
+    <col min="11" max="11" width="20.7238095238095" customWidth="1"/>
+    <col min="12" max="13" width="16.8190476190476" customWidth="1"/>
+    <col min="14" max="15" width="27.8190476190476" customWidth="1"/>
+    <col min="16" max="16" width="15.7238095238095" customWidth="1"/>
+    <col min="17" max="17" width="25.4571428571429" customWidth="1"/>
+    <col min="20" max="20" width="12.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:20">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:20">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:20">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="10" customFormat="1" ht="29">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="5" ht="30" spans="1:20">
+      <c r="A5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="K5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="29">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="29">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="29">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="12" t="s">
+      <c r="R5" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{3AD5B118-CD54-495E-8BD8-AA1C7F316868}"/>
+    <hyperlink ref="N2" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N3" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N4" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N5" r:id="rId1" display="jalzate@todo1.net"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -172,9 +177,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>406-125210-00</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -182,24 +184,28 @@
   </si>
   <si>
     <t>406-782800-09</t>
+  </si>
+  <si>
+    <t>406-725210-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +219,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,147 +227,11 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,194 +250,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -599,324 +283,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1203,32 +607,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7238095238095" customWidth="1"/>
-    <col min="3" max="3" width="18.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="11.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.8190476190476" customWidth="1"/>
-    <col min="7" max="8" width="15.4571428571429" customWidth="1"/>
-    <col min="9" max="10" width="23.4571428571429" customWidth="1"/>
-    <col min="11" max="11" width="20.7238095238095" customWidth="1"/>
-    <col min="12" max="13" width="16.8190476190476" customWidth="1"/>
-    <col min="14" max="15" width="27.8190476190476" customWidth="1"/>
-    <col min="16" max="16" width="15.7238095238095" customWidth="1"/>
-    <col min="17" max="17" width="25.4571428571429" customWidth="1"/>
-    <col min="20" max="20" width="12.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1262,10 +666,10 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1293,56 +697,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:20">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="30">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1351,60 +755,60 @@
       <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:20">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:20" ht="30">
+      <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1413,143 +817,142 @@
       <c r="S3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:20">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:20" ht="30">
+      <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="10" t="s">
+      <c r="S4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
+      <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" ht="30" spans="1:20">
-      <c r="A5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="jalzate@todo1.net"/>
-    <hyperlink ref="N3" r:id="rId1" display="jalzate@todo1.net"/>
-    <hyperlink ref="N4" r:id="rId1" display="jalzate@todo1.net"/>
-    <hyperlink ref="N5" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/pagos/Creditos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE5777F-63A1-458D-AED9-86611203F7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -87,9 +88,6 @@
     <t>22493944</t>
   </si>
   <si>
-    <t>inversion2</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -163,9 +161,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>invictus10</t>
   </si>
   <si>
     <t>29281023956</t>
@@ -192,13 +187,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,31 +288,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -327,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -369,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,9 +430,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,345 +674,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="15" width="27.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="15" width="27.875" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="25.375" customWidth="1"/>
+    <col min="20" max="20" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="30">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:20" s="10" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:20" s="13" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="30">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:20" s="13" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="13" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="P5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30">
-      <c r="A4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="Q5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="R5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="S5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30">
-      <c r="A5" s="10" t="s">
+      <c r="T5" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
